--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053C34D-F0EB-47E2-B5B9-D4BC82B06228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +61,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +338,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -1,51 +1,431 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053C34D-F0EB-47E2-B5B9-D4BC82B06228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C计数器</t>
+    </r>
+  </si>
+  <si>
+    <t>JAVA虚拟机栈</t>
+  </si>
+  <si>
+    <t>本地方发栈</t>
+  </si>
+  <si>
+    <t>JAVA堆</t>
+  </si>
+  <si>
+    <t>方法区</t>
+  </si>
+  <si>
+    <t>运行时的常量池</t>
+  </si>
+  <si>
+    <t>虚拟机遇到一条new指令时</t>
+  </si>
+  <si>
+    <t>对象内存布局</t>
+  </si>
+  <si>
+    <t>JVM主流的访问对象方式</t>
+  </si>
+  <si>
+    <t>建立对象时为了使用对象，java程序需要通过栈上的reference数据来操作对上的额具体对象</t>
+  </si>
+  <si>
+    <t>句柄</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -53,24 +433,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -119,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -154,7 +820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -328,26 +994,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,28 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C计数器</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>PC计数器</t>
   </si>
   <si>
     <t>JAVA虚拟机栈</t>
@@ -59,13 +40,25 @@
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>JVM主流的访问对象方式</t>
-  </si>
-  <si>
-    <t>建立对象时为了使用对象，java程序需要通过栈上的reference数据来操作对上的额具体对象</t>
+    <t>建立对象为了使用对象，Java程序要通过栈上的reference来操作堆上的数据</t>
+  </si>
+  <si>
+    <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
+  </si>
+  <si>
+    <t>操作数据方式</t>
   </si>
   <si>
     <t>句柄</t>
+  </si>
+  <si>
+    <t>句柄池</t>
+  </si>
+  <si>
+    <t>在Java堆中划分一块内存来做句柄池</t>
+  </si>
+  <si>
+    <t>reference存的是句柄地址</t>
   </si>
 </sst>
 </file>
@@ -73,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,27 +80,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,6 +123,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,20 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -149,83 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +240,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,169 +372,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +431,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,32 +485,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,165 +531,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,67 +1001,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" t="s">
+      <c r="G9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="19935" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PC计数器</t>
   </si>
@@ -31,34 +31,49 @@
     <t>方法区</t>
   </si>
   <si>
+    <t>给对象添加一个引用计数器</t>
+  </si>
+  <si>
     <t>运行时的常量池</t>
   </si>
   <si>
+    <t>引用计数法</t>
+  </si>
+  <si>
+    <t>每当有一个地方引用的时候计数器加1</t>
+  </si>
+  <si>
     <t>虚拟机遇到一条new指令时</t>
   </si>
   <si>
+    <t>复制法</t>
+  </si>
+  <si>
+    <t>当引用失效时计数器减1</t>
+  </si>
+  <si>
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>建立对象为了使用对象，Java程序要通过栈上的reference来操作堆上的数据</t>
+    <t>可达性分析</t>
   </si>
   <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
-    <t>操作数据方式</t>
-  </si>
-  <si>
-    <t>句柄</t>
-  </si>
-  <si>
-    <t>句柄池</t>
-  </si>
-  <si>
-    <t>在Java堆中划分一块内存来做句柄池</t>
-  </si>
-  <si>
-    <t>reference存的是句柄地址</t>
+    <t>GC自救finalize</t>
+  </si>
+  <si>
+    <t>判断对象是否存活（垃圾回收机制）8种</t>
+  </si>
+  <si>
+    <t>标记清除法Mark-Sweep</t>
+  </si>
+  <si>
+    <t>标记整理法</t>
+  </si>
+  <si>
+    <t>分代收集算法</t>
   </si>
 </sst>
 </file>
@@ -66,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -88,28 +103,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,109 +224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +446,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,48 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +494,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +531,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,130 +567,130 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1029,53 +1044,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" t="s">
-        <v>11</v>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11" spans="8:9">
+    <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7935"/>
+    <workbookView windowWidth="19935" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PC计数器</t>
   </si>
@@ -25,55 +25,40 @@
     <t>本地方发栈</t>
   </si>
   <si>
+    <t>可达性分析</t>
+  </si>
+  <si>
     <t>JAVA堆</t>
   </si>
   <si>
+    <t>通过一系列GCRoots对象作为起点</t>
+  </si>
+  <si>
     <t>方法区</t>
   </si>
   <si>
-    <t>给对象添加一个引用计数器</t>
+    <t>从这些节点开始向下搜索，搜索所走的路劲被称为引用链（reference chain)</t>
   </si>
   <si>
     <t>运行时的常量池</t>
   </si>
   <si>
-    <t>引用计数法</t>
-  </si>
-  <si>
-    <t>每当有一个地方引用的时候计数器加1</t>
+    <t>当一个对象的节点到GCRoots之间没有任何引用链的时候，说明这个对象可以回收</t>
   </si>
   <si>
     <t>虚拟机遇到一条new指令时</t>
   </si>
   <si>
-    <t>复制法</t>
-  </si>
-  <si>
-    <t>当引用失效时计数器减1</t>
-  </si>
-  <si>
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>可达性分析</t>
+    <t>GC自救法</t>
   </si>
   <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
-    <t>GC自救finalize</t>
-  </si>
-  <si>
     <t>判断对象是否存活（垃圾回收机制）8种</t>
-  </si>
-  <si>
-    <t>标记清除法Mark-Sweep</t>
-  </si>
-  <si>
-    <t>标记整理法</t>
-  </si>
-  <si>
-    <t>分代收集算法</t>
   </si>
 </sst>
 </file>
@@ -102,85 +87,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,9 +111,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,39 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,19 +240,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,145 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,36 +431,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,15 +452,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -517,6 +463,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +537,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,16 +549,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,115 +567,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1034,78 +1019,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8970"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PC计数器</t>
   </si>
@@ -25,40 +25,46 @@
     <t>本地方发栈</t>
   </si>
   <si>
+    <t>JAVA堆</t>
+  </si>
+  <si>
     <t>可达性分析</t>
   </si>
   <si>
-    <t>JAVA堆</t>
-  </si>
-  <si>
-    <t>通过一系列GCRoots对象作为起点</t>
-  </si>
-  <si>
     <t>方法区</t>
   </si>
   <si>
-    <t>从这些节点开始向下搜索，搜索所走的路劲被称为引用链（reference chain)</t>
+    <t>引用计数法</t>
   </si>
   <si>
     <t>运行时的常量池</t>
   </si>
   <si>
-    <t>当一个对象的节点到GCRoots之间没有任何引用链的时候，说明这个对象可以回收</t>
+    <t>GC自救finlize</t>
   </si>
   <si>
     <t>虚拟机遇到一条new指令时</t>
   </si>
   <si>
+    <t>标记清除法</t>
+  </si>
+  <si>
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>GC自救法</t>
+    <t>赋值算法</t>
   </si>
   <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
+    <t>标记整理算法</t>
+  </si>
+  <si>
     <t>判断对象是否存活（垃圾回收机制）8种</t>
+  </si>
+  <si>
+    <t>分代手机算法</t>
   </si>
 </sst>
 </file>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,14 +88,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,6 +101,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -111,98 +124,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +148,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,25 +246,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +342,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,109 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,17 +440,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,26 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,151 +528,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1019,59 +1025,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PC计数器</t>
   </si>
@@ -28,43 +28,79 @@
     <t>JAVA堆</t>
   </si>
   <si>
-    <t>可达性分析</t>
-  </si>
-  <si>
     <t>方法区</t>
   </si>
   <si>
-    <t>引用计数法</t>
-  </si>
-  <si>
     <t>运行时的常量池</t>
   </si>
   <si>
-    <t>GC自救finlize</t>
-  </si>
-  <si>
     <t>虚拟机遇到一条new指令时</t>
   </si>
   <si>
-    <t>标记清除法</t>
-  </si>
-  <si>
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>赋值算法</t>
-  </si>
-  <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
-    <t>标记整理算法</t>
-  </si>
-  <si>
     <t>判断对象是否存活（垃圾回收机制）8种</t>
   </si>
   <si>
-    <t>分代手机算法</t>
+    <t>Class类文件结构（魔数，常量池，访问标记）</t>
+  </si>
+  <si>
+    <t>类加载的生命周期</t>
+  </si>
+  <si>
+    <t>类初始化的场景（了解）</t>
+  </si>
+  <si>
+    <t>初始化的注意点</t>
+  </si>
+  <si>
+    <t>类加载的过程</t>
+  </si>
+  <si>
+    <t>类加载器</t>
+  </si>
+  <si>
+    <t>双亲委托模型</t>
+  </si>
+  <si>
+    <t>栈帧</t>
+  </si>
+  <si>
+    <t>栈帧局部变量表的大小，操作数栈的深度控制</t>
+  </si>
+  <si>
+    <t>局部变量表</t>
+  </si>
+  <si>
+    <t>局部变量表中的reference</t>
+  </si>
+  <si>
+    <t>操作数栈</t>
+  </si>
+  <si>
+    <t>操作数栈工作流程举例</t>
+  </si>
+  <si>
+    <t>动态链接</t>
+  </si>
+  <si>
+    <t>方法返回地址</t>
+  </si>
+  <si>
+    <t>方法退出的过程</t>
+  </si>
+  <si>
+    <t>方法调用</t>
+  </si>
+  <si>
+    <t>解析（了解）</t>
+  </si>
+  <si>
+    <t>分派（了解）</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1030,60 +1066,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -129,6 +129,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -137,21 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,89 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -258,16 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,18 +282,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,13 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,114 +444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,25 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,15 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,8 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +511,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,25 +573,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,16 +591,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,115 +609,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I2" sqref="I2:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PC计数器</t>
   </si>
@@ -40,10 +40,16 @@
     <t>对象内存布局</t>
   </si>
   <si>
+    <t>分代收集算法</t>
+  </si>
+  <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
     <t>判断对象是否存活（垃圾回收机制）8种</t>
+  </si>
+  <si>
+    <t>根据对象的存活周期不同，将java堆划分为新生代，老年代，这样可以根据每个年代的不同来采用合适的收集算法</t>
   </si>
   <si>
     <t>Class类文件结构（魔数，常量池，访问标记）</t>
@@ -130,6 +136,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -137,6 +150,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -144,21 +171,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +204,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,29 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -226,9 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,31 +258,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +497,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,35 +564,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,31 +579,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +597,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1086,114 +1092,120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PC计数器</t>
   </si>
@@ -40,18 +40,12 @@
     <t>对象内存布局</t>
   </si>
   <si>
-    <t>分代收集算法</t>
-  </si>
-  <si>
     <t>JVM主流的访问对象方式（栈怎么操作堆）</t>
   </si>
   <si>
     <t>判断对象是否存活（垃圾回收机制）8种</t>
   </si>
   <si>
-    <t>根据对象的存活周期不同，将java堆划分为新生代，老年代，这样可以根据每个年代的不同来采用合适的收集算法</t>
-  </si>
-  <si>
     <t>Class类文件结构（魔数，常量池，访问标记）</t>
   </si>
   <si>
@@ -76,7 +70,7 @@
     <t>栈帧</t>
   </si>
   <si>
-    <t>栈帧局部变量表的大小，操作数栈的深度控制</t>
+    <t>栈帧局部变量表的大小，操作数栈的深度控制（了解）</t>
   </si>
   <si>
     <t>局部变量表</t>
@@ -136,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +144,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,20 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,11 +173,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,11 +205,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,47 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,103 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,79 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +473,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +502,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -570,160 +573,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I3" sqref="I3:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1092,120 +1086,114 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -123,12 +123,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -136,6 +187,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -143,57 +233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,36 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -243,31 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,45 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,22 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,9 +522,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,150 +578,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,153 +1046,156 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:Q18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/JVM/test.xlsx
+++ b/JVM/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,6 +128,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -136,98 +218,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,19 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +475,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,13 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,15 +545,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,151 +578,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,7 +1045,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I9" sqref="I9:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1055,147 +1054,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
